--- a/biology/Histoire de la zoologie et de la botanique/Cornelius_Becker_Philip/Cornelius_Becker_Philip.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cornelius_Becker_Philip/Cornelius_Becker_Philip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornelius Becker Philip est un entomologiste et microbiologiste américain, né le 12 juin 1900 à Fort Lupton dans le Colorado et mort le 8 janvier 1987 à San Francisco.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son grand-père émigre d’Écosse au début des années 1870. Son père, Smith Durie Philip (1874-1970), et sa mère, Mattie Newcomb née Shoemaker (1876-1931), sont tous deux diplômés de l’école d’agriculture du Colorado. Sa mère a travaillé, étant jeune, comme illustratrice pour le département d’entomologie de l’école.
 Pour donner une meilleure éducation à ses deux fils, leur mère les emmène à l’école polytechnique de Long Beach de Californie. L’un des professeurs favorise l’intérêt de Philip pour les insectes en lui permettant de faire quelques élevages.
@@ -552,7 +566,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul H. Arnaud Jr (1985), Cornelius Becker Philip : Biography of an Illustrious Tabanidologist and Parasitologist. Myia, 3 : 1-77.
 </t>
